--- a/salary-spreadsheet.xlsx
+++ b/salary-spreadsheet.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Just dave</t>
   </si>
@@ -27,9 +27,6 @@
     <t>Engineer</t>
   </si>
   <si>
-    <t>UX person</t>
-  </si>
-  <si>
     <t>Sales</t>
   </si>
   <si>
@@ -37,6 +34,15 @@
   </si>
   <si>
     <t>Full Team</t>
+  </si>
+  <si>
+    <t>designer / UX person</t>
+  </si>
+  <si>
+    <t>Monthly</t>
+  </si>
+  <si>
+    <t>Annual</t>
   </si>
 </sst>
 </file>
@@ -44,7 +50,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0;[Red]&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0;[Red]&quot;$&quot;#,##0"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -101,7 +107,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -444,17 +450,22 @@
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
+    <col min="1" max="1" width="18.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="2" spans="1:3">
       <c r="B2" s="1"/>
@@ -478,7 +489,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1">
         <v>4000</v>
@@ -490,7 +501,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7" s="1">
         <v>6000</v>
@@ -522,7 +533,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B18" s="1">
         <f>SUM(B3:B7)</f>
@@ -535,7 +546,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B20" s="1">
         <f>SUM(B13:B19)</f>

--- a/salary-spreadsheet.xlsx
+++ b/salary-spreadsheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="27680" windowHeight="17220" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27680" windowHeight="17220" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Just dave</t>
   </si>
@@ -43,14 +43,59 @@
   </si>
   <si>
     <t>Annual</t>
+  </si>
+  <si>
+    <t>Per Month</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Profit</t>
+  </si>
+  <si>
+    <t>Training</t>
+  </si>
+  <si>
+    <t>Content Development Services</t>
+  </si>
+  <si>
+    <t>QA</t>
+  </si>
+  <si>
+    <t>Social Media Links</t>
+  </si>
+  <si>
+    <t>Mobile Friendly</t>
+  </si>
+  <si>
+    <t>Website Coding</t>
+  </si>
+  <si>
+    <t>Interface &amp; Design</t>
+  </si>
+  <si>
+    <t>Project management</t>
+  </si>
+  <si>
+    <t>Hours</t>
+  </si>
+  <si>
+    <t>Task</t>
+  </si>
+  <si>
+    <t>HTML Salary + Benefits</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="4">
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0;[Red]\-&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0;[Red]&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="165" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -105,9 +150,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -447,19 +496,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="18.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
@@ -467,11 +517,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:9">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -482,12 +532,32 @@
         <f>B3*12</f>
         <v>24000</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="F3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="F5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -498,8 +568,14 @@
         <f>B6*12</f>
         <v>48000</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="F6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -510,16 +586,53 @@
         <f>B7*12</f>
         <v>72000</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="F7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="F8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="F9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="F10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="F11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="G12">
+        <f>SUM(G4:G11)</f>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
         <v>1</v>
       </c>
@@ -530,8 +643,49 @@
         <f>B13*12</f>
         <v>96000</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="G13">
+        <f>G12*120</f>
+        <v>5640</v>
+      </c>
+      <c r="H13">
+        <f>2000/G12</f>
+        <v>42.553191489361701</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="G15" s="4">
+        <f>G16*0.5</f>
+        <v>14.5</v>
+      </c>
+      <c r="I15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="F16" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" s="2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="F17" t="s">
+        <v>9</v>
+      </c>
+      <c r="G17" s="2">
+        <f>G16*G12</f>
+        <v>1363</v>
+      </c>
+      <c r="H17">
+        <v>3000</v>
+      </c>
+      <c r="I17">
+        <f>H17-G17</f>
+        <v>1637</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" t="s">
         <v>3</v>
       </c>
@@ -544,7 +698,13 @@
         <v>144000</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="19" spans="1:10">
+      <c r="G19">
+        <f>40*4</f>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -555,6 +715,41 @@
       <c r="C20" s="1">
         <f>B20*12</f>
         <v>240000</v>
+      </c>
+      <c r="F20" t="s">
+        <v>8</v>
+      </c>
+      <c r="G20" s="2">
+        <f>G19*G16</f>
+        <v>4640</v>
+      </c>
+      <c r="H20" s="3">
+        <f>H17*4</f>
+        <v>12000</v>
+      </c>
+      <c r="I20" s="2">
+        <f>H20-G20</f>
+        <v>7360</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="F25" s="5">
+        <v>40000</v>
+      </c>
+      <c r="G25">
+        <v>2080</v>
+      </c>
+      <c r="H25">
+        <f>F25/G25</f>
+        <v>19.23076923076923</v>
+      </c>
+      <c r="I25">
+        <f>H25*0.5</f>
+        <v>9.615384615384615</v>
+      </c>
+      <c r="J25">
+        <f>I25+H25</f>
+        <v>28.846153846153847</v>
       </c>
     </row>
   </sheetData>
